--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="19530" yWindow="-15" windowWidth="9285" windowHeight="12840"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="CresNet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>CresNet ID</t>
   </si>
@@ -39,9 +37,6 @@
     <t>00.12</t>
   </si>
   <si>
-    <t>00.10</t>
-  </si>
-  <si>
     <t>GLS-PART-CN</t>
   </si>
   <si>
@@ -96,9 +91,6 @@
     <t>01 &lt;-&gt; 02</t>
   </si>
   <si>
-    <t>03&lt;-&gt;04, 03&lt;-&gt;05</t>
-  </si>
-  <si>
     <t>KP-01</t>
   </si>
   <si>
@@ -165,16 +157,19 @@
     <t>13</t>
   </si>
   <si>
-    <t>8SW8-01</t>
-  </si>
-  <si>
-    <t>8SW8-02</t>
-  </si>
-  <si>
-    <t>8SW8-03</t>
-  </si>
-  <si>
     <t>PS-01</t>
+  </si>
+  <si>
+    <t>8SW8</t>
+  </si>
+  <si>
+    <t>03&lt;-&gt;04</t>
+  </si>
+  <si>
+    <t>00.11</t>
+  </si>
+  <si>
+    <t>00.10, 00.11</t>
   </si>
 </sst>
 </file>
@@ -190,12 +185,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,13 +211,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,7 +532,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,58 +564,54 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -616,183 +619,160 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -61,9 +61,6 @@
     <t>02.22</t>
   </si>
   <si>
-    <t>? C2NI-CB ?</t>
-  </si>
-  <si>
     <t>DIN-8SW8-I</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>KP-08</t>
   </si>
   <si>
-    <t>KP-09</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
@@ -170,6 +164,12 @@
   </si>
   <si>
     <t>00.10, 00.11</t>
+  </si>
+  <si>
+    <t>C2N-UNI8IO</t>
+  </si>
+  <si>
+    <t>KP-09 (2)</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,54 +564,54 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -620,30 +620,30 @@
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -682,15 +682,15 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -714,15 +714,15 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -731,18 +731,18 @@
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -751,19 +751,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="-15" windowWidth="9285" windowHeight="12840"/>
+    <workbookView xWindow="19530" yWindow="45" windowWidth="9285" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
@@ -211,13 +211,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +569,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -580,10 +586,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -595,10 +601,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -607,7 +613,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -619,12 +625,12 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -636,10 +642,10 @@
       <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -651,10 +657,10 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -666,10 +672,10 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -681,12 +687,12 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -698,10 +704,10 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -718,7 +724,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -730,7 +736,7 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -747,7 +753,7 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -211,13 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,7 +541,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +575,7 @@
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -589,7 +592,7 @@
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -604,7 +607,7 @@
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -625,7 +628,7 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -642,7 +645,7 @@
       <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -657,7 +660,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -672,7 +675,7 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -687,7 +690,7 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -704,7 +707,7 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -736,7 +739,7 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -753,10 +756,10 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
+    <sheet name="DIN-8SW8-I" sheetId="3" r:id="rId2"/>
+    <sheet name="CP3 Relays" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>CresNet ID</t>
   </si>
@@ -170,18 +172,125 @@
   </si>
   <si>
     <t>KP-09 (2)</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>00.10</t>
+  </si>
+  <si>
+    <t>00.14</t>
+  </si>
+  <si>
+    <t>Komentarz</t>
+  </si>
+  <si>
+    <t>00.15</t>
+  </si>
+  <si>
+    <t>Lewa i Prawa strona - zawsze razem</t>
+  </si>
+  <si>
+    <t>Agora</t>
+  </si>
+  <si>
+    <t>Symbol wzmacniacza</t>
+  </si>
+  <si>
+    <t>AMP-01</t>
+  </si>
+  <si>
+    <t>AMP-02</t>
+  </si>
+  <si>
+    <t>AMP-03</t>
+  </si>
+  <si>
+    <t>AMP-04</t>
+  </si>
+  <si>
+    <t>AMP-05</t>
+  </si>
+  <si>
+    <t>AMP-06</t>
+  </si>
+  <si>
+    <t>AMP-07</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Lokacja głośników</t>
+  </si>
+  <si>
+    <t>Kanał</t>
+  </si>
+  <si>
+    <t>SCR-01</t>
+  </si>
+  <si>
+    <t>01&lt;-&gt;02</t>
+  </si>
+  <si>
+    <t>Symbol Ekranu</t>
+  </si>
+  <si>
+    <t>SCR-02</t>
+  </si>
+  <si>
+    <t>SCR-03</t>
+  </si>
+  <si>
+    <t>SCR-04</t>
+  </si>
+  <si>
+    <t>SCR-05</t>
+  </si>
+  <si>
+    <t>SCR-06</t>
+  </si>
+  <si>
+    <t>SCR-07</t>
+  </si>
+  <si>
+    <t>02.16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,10 +317,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,15 +341,49 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -575,7 +719,7 @@
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -592,7 +736,7 @@
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -607,7 +751,7 @@
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -628,7 +772,7 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -645,7 +789,7 @@
       <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -660,7 +804,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -675,7 +819,7 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -690,7 +834,7 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -707,7 +851,7 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -739,7 +883,7 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -756,7 +900,7 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -784,4 +928,1237 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="9" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="9" customWidth="1"/>
+    <col min="13" max="14" width="24.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="26" style="9" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="9"/>
+    <col min="21" max="21" width="17.28515625" style="9" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="9">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="9">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="9">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="9">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C36" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C41" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C43" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="E3:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="20.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D3:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="45" windowWidth="9285" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,10 +365,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +929,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,16 +1011,16 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9"/>
@@ -1041,12 +1044,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1068,7 +1071,7 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1099,7 +1102,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1130,7 +1133,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1192,7 +1195,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1222,7 +1225,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -1274,7 +1277,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>12</v>
       </c>
       <c r="B12" s="12">
@@ -1306,7 +1309,7 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -1336,7 +1339,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -1366,7 +1369,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -1426,7 +1429,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -1456,7 +1459,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -1486,7 +1489,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
       <c r="B21" s="12">
@@ -1570,7 +1573,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="12">
         <v>2</v>
       </c>
@@ -1600,7 +1603,7 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="12">
         <v>3</v>
       </c>
@@ -1630,7 +1633,7 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="12">
         <v>4</v>
       </c>
@@ -1660,7 +1663,7 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="12">
         <v>5</v>
       </c>
@@ -1690,7 +1693,7 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="12">
         <v>6</v>
       </c>
@@ -1720,7 +1723,7 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="12">
         <v>7</v>
       </c>
@@ -1750,7 +1753,7 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="12">
         <v>8</v>
       </c>
@@ -1846,8 +1849,8 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1868,8 +1871,8 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1889,8 +1892,8 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1910,8 +1913,8 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1931,8 +1934,8 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1952,8 +1955,8 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1967,8 +1970,8 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1982,8 +1985,8 @@
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2001,46 +2004,35 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C38:C39"/>
@@ -2049,6 +2041,17 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1011,7 +1011,7 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <v>11</v>
       </c>
       <c r="B3" s="12">
@@ -1020,7 +1020,7 @@
       <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9"/>
@@ -1044,12 +1044,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1071,7 +1071,7 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <v>12</v>
       </c>
       <c r="B12" s="12">
@@ -1309,7 +1309,7 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="12">
@@ -1573,7 +1573,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="12">
         <v>2</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="12">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="12">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="12">
         <v>5</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="12">
         <v>6</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="12">
         <v>7</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="12">
         <v>8</v>
       </c>
@@ -1849,8 +1849,8 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1871,8 +1871,8 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1892,8 +1892,8 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1913,8 +1913,8 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1934,8 +1934,8 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1955,8 +1955,8 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1970,8 +1970,8 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1985,8 +1985,8 @@
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2004,35 +2004,46 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C38:C39"/>
@@ -2041,17 +2052,6 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
@@ -365,13 +365,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1011,16 +1011,16 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9"/>
@@ -1044,12 +1044,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1071,7 +1071,7 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>12</v>
       </c>
       <c r="B12" s="12">
@@ -1309,7 +1309,7 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
       <c r="B21" s="12">
@@ -1573,7 +1573,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="12">
         <v>2</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="12">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="12">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="12">
         <v>5</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="12">
         <v>6</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="12">
         <v>7</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="12">
         <v>8</v>
       </c>
@@ -1849,8 +1849,8 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1871,8 +1871,8 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1892,8 +1892,8 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1913,8 +1913,8 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1934,8 +1934,8 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1955,8 +1955,8 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1970,8 +1970,8 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1985,8 +1985,8 @@
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2004,46 +2004,35 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C38:C39"/>
@@ -2052,6 +2041,17 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2062,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,16 +362,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +716,7 @@
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -730,7 +733,7 @@
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -745,7 +748,7 @@
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -766,7 +769,7 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -783,7 +786,7 @@
       <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -798,7 +801,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -813,7 +816,7 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -828,7 +831,7 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -845,7 +848,7 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -882,7 +885,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -928,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1011,16 +1014,16 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="18">
         <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9"/>
@@ -1044,12 +1047,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1071,7 +1074,7 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1102,7 +1105,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1133,7 +1136,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -1164,7 +1167,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1195,7 +1198,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1225,7 +1228,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -1277,7 +1280,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
       <c r="B12" s="12">
@@ -1309,7 +1312,7 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -1339,7 +1342,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -1369,7 +1372,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -1399,7 +1402,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -1429,7 +1432,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -1459,7 +1462,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -1489,7 +1492,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -1541,7 +1544,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="18">
         <v>13</v>
       </c>
       <c r="B21" s="12">
@@ -1573,7 +1576,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="12">
         <v>2</v>
       </c>
@@ -1603,7 +1606,7 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="12">
         <v>3</v>
       </c>
@@ -1633,7 +1636,7 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="12">
         <v>4</v>
       </c>
@@ -1663,7 +1666,7 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="12">
         <v>5</v>
       </c>
@@ -1693,7 +1696,7 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="12">
         <v>6</v>
       </c>
@@ -1723,7 +1726,7 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="12">
         <v>7</v>
       </c>
@@ -1753,7 +1756,7 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="12">
         <v>8</v>
       </c>
@@ -1849,8 +1852,8 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1871,8 +1874,8 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1892,8 +1895,8 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1913,8 +1916,8 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1934,8 +1937,8 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1955,8 +1958,8 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1970,8 +1973,8 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1985,8 +1988,8 @@
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2004,35 +2007,46 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C38:C39"/>
@@ -2041,17 +2055,6 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2103,7 +2106,7 @@
       <c r="C3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2117,7 +2120,7 @@
       <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2129,7 +2132,7 @@
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -2141,7 +2144,7 @@
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2153,7 +2156,7 @@
       <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
@@ -2168,8 +2171,8 @@
       <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2183,8 +2186,8 @@
       <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720"/>
+    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
@@ -368,13 +368,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1014,16 +1014,16 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9"/>
@@ -1047,12 +1047,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1074,7 +1074,7 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>12</v>
       </c>
       <c r="B12" s="12">
@@ -1312,7 +1312,7 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="12">
@@ -1576,7 +1576,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="12">
         <v>2</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="12">
         <v>3</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="12">
         <v>4</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="12">
         <v>5</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="12">
         <v>6</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="12">
         <v>7</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="12">
         <v>8</v>
       </c>
@@ -1852,8 +1852,8 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1874,8 +1874,8 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1895,8 +1895,8 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1916,8 +1916,8 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1937,8 +1937,8 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1958,8 +1958,8 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1973,8 +1973,8 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1988,8 +1988,8 @@
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2007,46 +2007,35 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C38:C39"/>
@@ -2055,6 +2044,17 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2065,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QLoc/doc/CresNet.xlsx
+++ b/QLoc/doc/CresNet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="19530" yWindow="105" windowWidth="9285" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="CresNet" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,16 +365,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +719,7 @@
       <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -733,7 +736,7 @@
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -748,7 +751,7 @@
       <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -769,7 +772,7 @@
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -786,7 +789,7 @@
       <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -801,7 +804,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -816,7 +819,7 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -831,7 +834,7 @@
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -848,7 +851,7 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -863,7 +866,7 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -880,7 +883,7 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -897,7 +900,7 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -1014,16 +1017,16 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="19">
         <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9"/>
@@ -1047,12 +1050,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1074,7 +1077,7 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1105,7 +1108,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1136,7 +1139,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -1167,7 +1170,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1198,7 +1201,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1228,7 +1231,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="19">
         <v>12</v>
       </c>
       <c r="B12" s="12">
@@ -1312,7 +1315,7 @@
       <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="12">
         <v>3</v>
       </c>
@@ -1372,7 +1375,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="12">
         <v>4</v>
       </c>
@@ -1402,7 +1405,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="12">
         <v>5</v>
       </c>
@@ -1432,7 +1435,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="12">
         <v>6</v>
       </c>
@@ -1462,7 +1465,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="12">
         <v>7</v>
       </c>
@@ -1492,7 +1495,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="12">
         <v>8</v>
       </c>
@@ -1544,7 +1547,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="19">
         <v>13</v>
       </c>
       <c r="B21" s="12">
@@ -1576,7 +1579,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="12">
         <v>2</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="W22" s="9"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="12">
         <v>3</v>
       </c>
@@ -1636,7 +1639,7 @@
       <c r="W23" s="9"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="12">
         <v>4</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="W24" s="9"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="12">
         <v>5</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="W25" s="9"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="12">
         <v>6</v>
       </c>
@@ -1726,7 +1729,7 @@
       <c r="W26" s="9"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="12">
         <v>7</v>
       </c>
@@ -1756,7 +1759,7 @@
       <c r="W27" s="9"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="12">
         <v>8</v>
       </c>
@@ -1852,8 +1855,8 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -1874,8 +1877,8 @@
       <c r="W32" s="9"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -1895,8 +1898,8 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1916,8 +1919,8 @@
       <c r="W34" s="9"/>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1937,8 +1940,8 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -1958,8 +1961,8 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -1973,8 +1976,8 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1988,8 +1991,8 @@
       <c r="P38" s="9"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2007,35 +2010,46 @@
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="C38:C39"/>
@@ -2044,17 +2058,6 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2065,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2106,7 +2109,7 @@
       <c r="C3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2120,7 +2123,7 @@
       <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2132,7 +2135,7 @@
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -2144,7 +2147,7 @@
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2156,7 +2159,7 @@
       <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
@@ -2171,8 +2174,8 @@
       <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2186,8 +2189,8 @@
       <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
